--- a/applicationqspider.xlsx
+++ b/applicationqspider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\Testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8132165749da3fe0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D08F4308-37FF-431C-96EE-754921ECB655}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D08F4308-37FF-431C-96EE-754921ECB655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17D4C367-A5AB-4F9E-A1AE-11149E1EBA3B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{541E982B-18E3-4B7E-841E-D9E62E1D77CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{541E982B-18E3-4B7E-841E-D9E62E1D77CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>ProjectName</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>TC_DAQ_Login_004</t>
+  </si>
+  <si>
+    <t>Anant Dongapure</t>
   </si>
 </sst>
 </file>
@@ -830,31 +833,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B209CCA7-5F3C-4568-8CEA-30FA644EF379}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="173" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="3"/>
+    <col min="12" max="12" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -898,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>26</v>
       </c>
@@ -938,7 +941,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
@@ -978,7 +981,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>26</v>
       </c>
@@ -1018,7 +1021,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
-    <row r="5" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1061,7 @@
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>58</v>
       </c>
@@ -1098,7 +1101,7 @@
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>58</v>
       </c>
@@ -1138,7 +1141,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>58</v>
       </c>
@@ -1178,7 +1181,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>58</v>
       </c>
@@ -1218,7 +1221,7 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="E10" s="3"/>
@@ -1228,7 +1231,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="E11" s="3"/>
@@ -1238,7 +1241,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="E12" s="3"/>
@@ -1248,7 +1251,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="E13" s="3"/>
@@ -1258,7 +1261,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="E14" s="3"/>
@@ -1268,7 +1271,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="E15" s="3"/>
@@ -1278,7 +1281,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="E16" s="3"/>
@@ -1288,7 +1291,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="E17" s="3"/>
@@ -1298,7 +1301,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1306,7 +1309,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B69" s="9" t="s">
         <v>3</v>
       </c>
@@ -1330,15 +1333,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B72" s="1" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
         <v>11</v>
       </c>
